--- a/biology/Zoologie/Introverta/Introverta.xlsx
+++ b/biology/Zoologie/Introverta/Introverta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les introverts ou introvertés (ou Introverta) sont un regroupement des scalidorhynches et des nématoïdes sur des critères morphologiques[3]. Ce groupe d'ecdysozoaires pourrait être le groupe frère des panarthropodes. Certaines analyses de séquences d'ARNr semblent montrer que ce groupe est paraphylétique. Ce groupe pourrait donc ne pas être un clade[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les introverts ou introvertés (ou Introverta) sont un regroupement des scalidorhynches et des nématoïdes sur des critères morphologiques. Ce groupe d'ecdysozoaires pourrait être le groupe frère des panarthropodes. Certaines analyses de séquences d'ARNr semblent montrer que ce groupe est paraphylétique. Ce groupe pourrait donc ne pas être un clade.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom introvert fait référence à leur tête dévaginable.
 </t>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains auteurs rajoutent à ce groupe Gastrotricha (l'ensemble est alors appelé Cycloneuralia Nielsen, 2001)[5],[6] ou encore Cycliophora [réf. nécessaire]. Cependant ce n'est plus le cas aujourd'hui et les gastrotriches sont aujourd'hui considérés comme des Spiralia[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs rajoutent à ce groupe Gastrotricha (l'ensemble est alors appelé Cycloneuralia Nielsen, 2001), ou encore Cycliophora [réf. nécessaire]. Cependant ce n'est plus le cas aujourd'hui et les gastrotriches sont aujourd'hui considérés comme des Spiralia
 </t>
         </is>
       </c>
